--- a/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,121 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45000</v>
+        <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>141.7279317434305</v>
+        <v>150.4459207583216</v>
       </c>
       <c r="C2" t="n">
-        <v>110.6120921702512</v>
+        <v>117.5768221099958</v>
       </c>
       <c r="D2" t="n">
-        <v>173.9902335419199</v>
+        <v>184.3833075276773</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44998</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>152.5271528646471</v>
+        <v>139.4498699445844</v>
       </c>
       <c r="C3" t="n">
-        <v>123.6413601220326</v>
+        <v>106.7010205942322</v>
       </c>
       <c r="D3" t="n">
-        <v>182.0225113387774</v>
+        <v>175.8736947875221</v>
       </c>
       <c r="E3" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44998</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45012</v>
+        <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>149.6711493975581</v>
+        <v>140.082410020457</v>
       </c>
       <c r="C4" t="n">
-        <v>120.6076533769896</v>
+        <v>106.2911238641001</v>
       </c>
       <c r="D4" t="n">
-        <v>179.3474188104678</v>
+        <v>174.9470727971416</v>
       </c>
       <c r="E4" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45005</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>138.046787309414</v>
+        <v>137.8881914072121</v>
       </c>
       <c r="C5" t="n">
-        <v>105.0444276916537</v>
+        <v>102.3089365009996</v>
       </c>
       <c r="D5" t="n">
-        <v>168.9762049337152</v>
+        <v>173.634616685436</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="B6" t="n">
-        <v>138.7291272878639</v>
-      </c>
-      <c r="C6" t="n">
-        <v>106.9946144327743</v>
-      </c>
-      <c r="D6" t="n">
-        <v>171.3994685591136</v>
-      </c>
-      <c r="E6" t="n">
-        <v>125</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B7" t="n">
-        <v>136.635821269653</v>
-      </c>
-      <c r="C7" t="n">
-        <v>104.3238347231165</v>
-      </c>
-      <c r="D7" t="n">
-        <v>166.2424936433266</v>
-      </c>
-      <c r="E7" t="n">
-        <v>108</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -602,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,54 +614,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5298846230937714</v>
+        <v>1564.026653563932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7279317434305028</v>
+        <v>39.54777684730119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7279317434305028</v>
+        <v>30.49166306035157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005162636478230517</v>
+        <v>0.3350143239931216</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005162636478230517</v>
+        <v>0.1987008965966988</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005149344381658654</v>
+        <v>0.2546726999549469</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1258.470039169701</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.47492127080341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.10329270206162</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2861682192190389</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1133368822237018</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2225435887884442</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>150.4459207583216</v>
+        <v>150.4459205651852</v>
       </c>
       <c r="C2" t="n">
-        <v>117.5768221099958</v>
+        <v>116.2919302489032</v>
       </c>
       <c r="D2" t="n">
-        <v>184.3833075276773</v>
+        <v>185.0514150845063</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
@@ -496,13 +496,13 @@
         <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>139.4498699445844</v>
+        <v>139.4498699447209</v>
       </c>
       <c r="C3" t="n">
-        <v>106.7010205942322</v>
+        <v>104.3628619366415</v>
       </c>
       <c r="D3" t="n">
-        <v>175.8736947875221</v>
+        <v>173.8047554985098</v>
       </c>
       <c r="E3" t="n">
         <v>145</v>
@@ -516,13 +516,13 @@
         <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>140.082410020457</v>
+        <v>140.0824100204555</v>
       </c>
       <c r="C4" t="n">
-        <v>106.2911238641001</v>
+        <v>106.0771380445609</v>
       </c>
       <c r="D4" t="n">
-        <v>174.9470727971416</v>
+        <v>172.9955460321588</v>
       </c>
       <c r="E4" t="n">
         <v>125</v>
@@ -539,10 +539,10 @@
         <v>137.8881914072121</v>
       </c>
       <c r="C5" t="n">
-        <v>102.3089365009996</v>
+        <v>101.7985158118466</v>
       </c>
       <c r="D5" t="n">
-        <v>173.634616685436</v>
+        <v>172.2470715814439</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -617,22 +617,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1564.026653563932</v>
+        <v>1564.026646664139</v>
       </c>
       <c r="C2" t="n">
-        <v>39.54777684730119</v>
+        <v>39.54777676006755</v>
       </c>
       <c r="D2" t="n">
-        <v>30.49166306035157</v>
+        <v>30.49166301203297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3350143239931216</v>
+        <v>0.3350143233816922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1987008965966988</v>
+        <v>0.1987008965966929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2546726999549469</v>
+        <v>0.2546726996648783</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>

--- a/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>150.4459205651852</v>
       </c>
       <c r="C2" t="n">
-        <v>116.2919302489032</v>
+        <v>115.2575122992613</v>
       </c>
       <c r="D2" t="n">
-        <v>185.0514150845063</v>
+        <v>181.5628815614363</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
@@ -499,10 +499,10 @@
         <v>139.4498699447209</v>
       </c>
       <c r="C3" t="n">
-        <v>104.3628619366415</v>
+        <v>106.0037550172497</v>
       </c>
       <c r="D3" t="n">
-        <v>173.8047554985098</v>
+        <v>175.4088438411104</v>
       </c>
       <c r="E3" t="n">
         <v>145</v>
@@ -519,10 +519,10 @@
         <v>140.0824100204555</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0771380445609</v>
+        <v>104.7251960949121</v>
       </c>
       <c r="D4" t="n">
-        <v>172.9955460321588</v>
+        <v>174.3903555580015</v>
       </c>
       <c r="E4" t="n">
         <v>125</v>
@@ -539,10 +539,10 @@
         <v>137.8881914072121</v>
       </c>
       <c r="C5" t="n">
-        <v>101.7985158118466</v>
+        <v>102.9143274934543</v>
       </c>
       <c r="D5" t="n">
-        <v>172.2470715814439</v>
+        <v>173.1655573798824</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
